--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="996">
   <si>
     <t>anchor score</t>
   </si>
@@ -334,577 +334,577 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>causing</t>
+  </si>
+  <si>
+    <t>stripped</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>allegedly</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dying</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>failing</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>toward</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>causing</t>
-  </si>
-  <si>
-    <t>stripped</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>trade</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dying</t>
-  </si>
-  <si>
-    <t>went</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>rob</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>failing</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>toward</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>stay</t>
@@ -3367,10 +3367,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3428,7 +3428,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02844864663046536</v>
+        <v>0.02883674660344579</v>
       </c>
       <c r="C3">
         <v>232</v>
@@ -3449,16 +3449,16 @@
         <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K3">
-        <v>0.004944524074412567</v>
+        <v>0.007705484238807473</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>217</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3478,7 +3478,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01986925669184508</v>
+        <v>0.02014031556102125</v>
       </c>
       <c r="C4">
         <v>249</v>
@@ -3499,28 +3499,28 @@
         <v>266</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="K4">
-        <v>0.004261530793741296</v>
+        <v>0.006837202200843951</v>
       </c>
       <c r="L4">
-        <v>761</v>
+        <v>174</v>
       </c>
       <c r="M4">
-        <v>803</v>
+        <v>174</v>
       </c>
       <c r="N4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2304</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3528,7 +3528,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01166406475053764</v>
+        <v>0.01182318737149487</v>
       </c>
       <c r="C5">
         <v>39</v>
@@ -3549,28 +3549,28 @@
         <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>297</v>
       </c>
       <c r="K5">
-        <v>0.003911713219063766</v>
+        <v>0.004944524074412567</v>
       </c>
       <c r="L5">
-        <v>300</v>
+        <v>91</v>
       </c>
       <c r="M5">
-        <v>307</v>
+        <v>91</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>76</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3578,7 +3578,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01039916490933074</v>
+        <v>0.01054103160945025</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3599,28 +3599,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="K6">
-        <v>0.003887387177568377</v>
+        <v>0.004261530793741296</v>
       </c>
       <c r="L6">
-        <v>214</v>
+        <v>761</v>
       </c>
       <c r="M6">
-        <v>217</v>
+        <v>803</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>269</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3628,7 +3628,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009523668988533591</v>
+        <v>0.009653592064493424</v>
       </c>
       <c r="C7">
         <v>26</v>
@@ -3649,28 +3649,28 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>298</v>
+        <v>104</v>
       </c>
       <c r="K7">
-        <v>0.003665125091372679</v>
+        <v>0.003911713219063766</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>307</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3678,7 +3678,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009150045195507871</v>
+        <v>0.009274871249248629</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -3699,28 +3699,28 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="K8">
-        <v>0.003553470616071704</v>
+        <v>0.003887387177568377</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>220</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3728,7 +3728,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009150045195507871</v>
+        <v>0.009274871249248629</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -3749,28 +3749,28 @@
         <v>125</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="K9">
-        <v>0.003479177872233595</v>
+        <v>0.003665125091372679</v>
       </c>
       <c r="L9">
-        <v>544</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>576</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1567</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3778,7 +3778,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008760501307374879</v>
+        <v>0.008880013154980531</v>
       </c>
       <c r="C10">
         <v>22</v>
@@ -3799,28 +3799,28 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="K10">
-        <v>0.003241133502059789</v>
+        <v>0.003553470616071704</v>
       </c>
       <c r="L10">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3828,7 +3828,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007924171585085567</v>
+        <v>0.008032274118679225</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -3849,28 +3849,28 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>0.003200219566807937</v>
+        <v>0.003479177872233595</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>544</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>576</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3878,7 +3878,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007700910553188997</v>
+        <v>0.00780596733203825</v>
       </c>
       <c r="C12">
         <v>17</v>
@@ -3899,28 +3899,28 @@
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="K12">
-        <v>0.003195181977745757</v>
+        <v>0.003241133502059789</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3928,7 +3928,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007700910553188997</v>
+        <v>0.00780596733203825</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -3949,28 +3949,28 @@
         <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="K13">
-        <v>0.003066463656198572</v>
+        <v>0.003200219566807937</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3978,7 +3978,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007470980617466345</v>
+        <v>0.007572900663556374</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -3999,16 +3999,16 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K14">
-        <v>0.003066463656198572</v>
+        <v>0.003195181977745757</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4028,7 +4028,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007233745877821389</v>
+        <v>0.007332429538109234</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -4049,28 +4049,28 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="K15">
-        <v>0.003010524498034638</v>
+        <v>0.003066463656198572</v>
       </c>
       <c r="L15">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="N15">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>628</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4078,7 +4078,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00673425092356813</v>
+        <v>0.006826120411611944</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -4099,28 +4099,28 @@
         <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>165</v>
+        <v>302</v>
       </c>
       <c r="K16">
-        <v>0.002997767237841534</v>
+        <v>0.003066463656198572</v>
       </c>
       <c r="L16">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>409</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4128,7 +4128,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00673425092356813</v>
+        <v>0.006826120411611944</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -4149,16 +4149,16 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K17">
-        <v>0.002976635423227915</v>
+        <v>0.003010524498034638</v>
       </c>
       <c r="L17">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="M17">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="N17">
         <v>0.96</v>
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>2881</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4178,7 +4178,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00673425092356813</v>
+        <v>0.006826120411611944</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -4199,28 +4199,28 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="K18">
-        <v>0.002906913675113988</v>
+        <v>0.002997767237841534</v>
       </c>
       <c r="L18">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="M18">
-        <v>301</v>
+        <v>158</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>593</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4228,7 +4228,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00673425092356813</v>
+        <v>0.006826120411611944</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -4249,28 +4249,28 @@
         <v>64</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>303</v>
+        <v>102</v>
       </c>
       <c r="K19">
-        <v>0.002885922382870673</v>
+        <v>0.002976635423227915</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>306</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4278,7 +4278,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006470059005907005</v>
+        <v>0.006558324354975852</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -4299,28 +4299,28 @@
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c r="K20">
-        <v>0.002885922382870673</v>
+        <v>0.002906913675113988</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>88</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4328,7 +4328,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006470059005907005</v>
+        <v>0.006558324354975852</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -4349,16 +4349,16 @@
         <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K21">
-        <v>0.002791276110050304</v>
+        <v>0.002885922382870673</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4378,7 +4378,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006194609881038393</v>
+        <v>0.006279117518912481</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -4399,16 +4399,16 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K22">
-        <v>0.00274272847431702</v>
+        <v>0.002885922382870673</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4428,7 +4428,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006194609881038393</v>
+        <v>0.006279117518912481</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -4449,16 +4449,16 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K23">
-        <v>0.002693305895200391</v>
+        <v>0.002791276110050304</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4478,7 +4478,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006194609881038393</v>
+        <v>0.006279117518912481</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -4499,16 +4499,16 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K24">
-        <v>0.002693305895200391</v>
+        <v>0.00274272847431702</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4528,7 +4528,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006194609881038393</v>
+        <v>0.006279117518912481</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -4549,7 +4549,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K25">
         <v>0.002693305895200391</v>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4578,7 +4578,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006194609881038393</v>
+        <v>0.006279117518912481</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4599,16 +4599,16 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K26">
-        <v>0.002642959289586766</v>
+        <v>0.002693305895200391</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4628,7 +4628,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005906328776541197</v>
+        <v>0.005986903647759655</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -4649,16 +4649,16 @@
         <v>17</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K27">
-        <v>0.002539273149741201</v>
+        <v>0.002693305895200391</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4678,7 +4678,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005906328776541197</v>
+        <v>0.005986903647759655</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -4699,16 +4699,16 @@
         <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K28">
-        <v>0.002431168947560046</v>
+        <v>0.002642959289586766</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>163</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4728,7 +4728,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005906328776541197</v>
+        <v>0.005986903647759655</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4749,16 +4749,16 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K29">
-        <v>0.002431168947560046</v>
+        <v>0.002539273149741201</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4778,7 +4778,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005906328776541197</v>
+        <v>0.005986903647759655</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -4799,28 +4799,28 @@
         <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>181</v>
+        <v>312</v>
       </c>
       <c r="K30">
-        <v>0.002429866967235877</v>
+        <v>0.002431168947560046</v>
       </c>
       <c r="L30">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>79</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4828,7 +4828,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005603235463099758</v>
+        <v>0.00567967549766728</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -4849,28 +4849,28 @@
         <v>19</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>160</v>
+        <v>313</v>
       </c>
       <c r="K31">
-        <v>0.002346872425166184</v>
+        <v>0.002431168947560046</v>
       </c>
       <c r="L31">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="N31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>689</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4878,7 +4878,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005603235463099758</v>
+        <v>0.00567967549766728</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4899,28 +4899,28 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>314</v>
+        <v>179</v>
       </c>
       <c r="K32">
-        <v>0.002318028639634082</v>
+        <v>0.002429866967235877</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4928,7 +4928,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005603235463099758</v>
+        <v>0.00567967549766728</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -4949,28 +4949,28 @@
         <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="K33">
-        <v>0.002259334843589069</v>
+        <v>0.002346872425166184</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>59</v>
+        <v>689</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4978,7 +4978,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005603235463099758</v>
+        <v>0.00567967549766728</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -4999,28 +4999,28 @@
         <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>166</v>
+        <v>314</v>
       </c>
       <c r="K34">
-        <v>0.002252183908813214</v>
+        <v>0.002318028639634082</v>
       </c>
       <c r="L34">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5028,7 +5028,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005603235463099758</v>
+        <v>0.00567967549766728</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -5049,28 +5049,28 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="K35">
-        <v>0.002199500225230027</v>
+        <v>0.002259334843589069</v>
       </c>
       <c r="L35">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5078,7 +5078,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005282781056723713</v>
+        <v>0.005354849412452818</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -5099,28 +5099,28 @@
         <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>316</v>
+        <v>164</v>
       </c>
       <c r="K36">
-        <v>0.002199075054823607</v>
+        <v>0.002252183908813214</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5128,7 +5128,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005282781056723713</v>
+        <v>0.005354849412452818</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -5149,28 +5149,28 @@
         <v>17</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>317</v>
+        <v>165</v>
       </c>
       <c r="K37">
-        <v>0.002199075054823607</v>
+        <v>0.002199500225230027</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5178,7 +5178,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005282781056723713</v>
+        <v>0.005354849412452818</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -5199,7 +5199,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K38">
         <v>0.002199075054823607</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5228,7 +5228,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004941589190899932</v>
+        <v>0.005009002964791546</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -5249,16 +5249,16 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K39">
-        <v>0.002137116809638458</v>
+        <v>0.002199075054823607</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5278,7 +5278,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004941589190899932</v>
+        <v>0.005009002964791546</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -5299,16 +5299,16 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K40">
-        <v>0.002137116809638458</v>
+        <v>0.002199075054823607</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>33</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5328,7 +5328,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004941589190899932</v>
+        <v>0.005009002964791546</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -5349,28 +5349,28 @@
         <v>12</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c r="K41">
-        <v>0.002131744807329324</v>
+        <v>0.002137116809638458</v>
       </c>
       <c r="L41">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5378,7 +5378,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004941589190899932</v>
+        <v>0.005009002964791546</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -5399,28 +5399,28 @@
         <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>106</v>
+        <v>320</v>
       </c>
       <c r="K42">
-        <v>0.002126062266886343</v>
+        <v>0.002137116809638458</v>
       </c>
       <c r="L42">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>105</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5428,7 +5428,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004941589190899932</v>
+        <v>0.005009002964791546</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -5449,28 +5449,28 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="K43">
-        <v>0.002073307844805269</v>
+        <v>0.002131744807329324</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5478,7 +5478,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004575022597753936</v>
+        <v>0.004637435624624315</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5499,28 +5499,28 @@
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="K44">
-        <v>0.002016745216646543</v>
+        <v>0.002073307844805269</v>
       </c>
       <c r="L44">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>222</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5528,7 +5528,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004575022597753936</v>
+        <v>0.004637435624624315</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5549,28 +5549,28 @@
         <v>10</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="K45">
-        <v>0.002007471688623</v>
+        <v>0.002016745216646543</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>54</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5578,7 +5578,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004575022597753936</v>
+        <v>0.004637435624624315</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5599,7 +5599,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K46">
         <v>0.002007471688623</v>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5628,7 +5628,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004575022597753936</v>
+        <v>0.004637435624624315</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K47">
         <v>0.002007471688623</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5678,7 +5678,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004575022597753936</v>
+        <v>0.004637435624624315</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5699,7 +5699,7 @@
         <v>34</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K48">
         <v>0.002007471688623</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>157</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5728,7 +5728,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004575022597753936</v>
+        <v>0.004637435624624315</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -5749,28 +5749,28 @@
         <v>3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>168</v>
+        <v>325</v>
       </c>
       <c r="K49">
-        <v>0.001978635445475258</v>
+        <v>0.002007471688623</v>
       </c>
       <c r="L49">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>13</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5778,7 +5778,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004176405129809525</v>
+        <v>0.00423338016764133</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -5799,28 +5799,28 @@
         <v>16</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>326</v>
+        <v>166</v>
       </c>
       <c r="K50">
-        <v>0.001939401903142998</v>
+        <v>0.001978635445475258</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5828,7 +5828,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004176405129809525</v>
+        <v>0.00423338016764133</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -5849,16 +5849,16 @@
         <v>75</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K51">
-        <v>0.001868854436066783</v>
+        <v>0.001939401903142998</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5878,7 +5878,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004176405129809525</v>
+        <v>0.00423338016764133</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5899,7 +5899,7 @@
         <v>18</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K52">
         <v>0.001868854436066783</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5928,7 +5928,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004176405129809525</v>
+        <v>0.00423338016764133</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -5949,7 +5949,7 @@
         <v>161</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K53">
         <v>0.001868854436066783</v>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -5978,7 +5978,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004176405129809525</v>
+        <v>0.00423338016764133</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -5999,16 +5999,16 @@
         <v>4</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K54">
-        <v>0.001795537263466927</v>
+        <v>0.001868854436066783</v>
       </c>
       <c r="L54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -6028,7 +6028,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004176405129809525</v>
+        <v>0.00423338016764133</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -6049,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K55">
         <v>0.001795537263466927</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -6078,7 +6078,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003735490308733172</v>
+        <v>0.003786450331778187</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6099,7 +6099,7 @@
         <v>7</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K56">
         <v>0.001795537263466927</v>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003735490308733172</v>
+        <v>0.003786450331778187</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6149,7 +6149,7 @@
         <v>23</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K57">
         <v>0.001795537263466927</v>
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>452</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -6178,7 +6178,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003735490308733172</v>
+        <v>0.003786450331778187</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -6199,7 +6199,7 @@
         <v>22</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K58">
         <v>0.001795537263466927</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6228,7 +6228,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003735490308733172</v>
+        <v>0.003786450331778187</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6249,7 +6249,7 @@
         <v>27</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K59">
         <v>0.001795537263466927</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -6278,7 +6278,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003735490308733172</v>
+        <v>0.003786450331778187</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6299,7 +6299,7 @@
         <v>4</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K60">
         <v>0.001795537263466927</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>218</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -6328,7 +6328,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003735490308733172</v>
+        <v>0.003786450331778187</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6349,7 +6349,7 @@
         <v>16</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K61">
         <v>0.001795537263466927</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>30</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -6378,7 +6378,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003735490308733172</v>
+        <v>0.003786450331778187</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6399,7 +6399,7 @@
         <v>19</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K62">
         <v>0.001795537263466927</v>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -6428,7 +6428,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003735490308733172</v>
+        <v>0.003786450331778187</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6449,28 +6449,28 @@
         <v>369</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
       <c r="K63">
-        <v>0.001793902926215524</v>
+        <v>0.001795537263466927</v>
       </c>
       <c r="L63">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M63">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="N63">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -6478,7 +6478,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003735490308733172</v>
+        <v>0.003786450331778187</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6499,7 +6499,7 @@
         <v>18</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K64">
         <v>0.001729585986869934</v>
@@ -6528,7 +6528,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003735490308733172</v>
+        <v>0.003786450331778187</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6578,7 +6578,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003607545078332657</v>
+        <v>0.00365675965664329</v>
       </c>
       <c r="C66">
         <v>42</v>
@@ -6628,7 +6628,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003235029502953503</v>
+        <v>0.003279162177487926</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6678,7 +6678,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003235029502953503</v>
+        <v>0.003279162177487926</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6728,7 +6728,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003235029502953503</v>
+        <v>0.003279162177487926</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6778,7 +6778,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003235029502953503</v>
+        <v>0.003279162177487926</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6828,7 +6828,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003235029502953503</v>
+        <v>0.003279162177487926</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -6878,7 +6878,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003235029502953503</v>
+        <v>0.003279162177487926</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -6928,7 +6928,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003235029502953503</v>
+        <v>0.003279162177487926</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -6978,7 +6978,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003235029502953503</v>
+        <v>0.003279162177487926</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7028,7 +7028,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003235029502953503</v>
+        <v>0.003279162177487926</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7049,7 +7049,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K75">
         <v>0.001684247765787767</v>
@@ -7078,7 +7078,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003235029502953503</v>
+        <v>0.003279162177487926</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7099,7 +7099,7 @@
         <v>36</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K76">
         <v>0.001656079985984091</v>
@@ -7128,7 +7128,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003235029502953503</v>
+        <v>0.003279162177487926</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7178,7 +7178,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003235029502953503</v>
+        <v>0.003279162177487926</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7228,7 +7228,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.00304064690462243</v>
+        <v>0.00308212778759221</v>
       </c>
       <c r="C79">
         <v>32</v>
@@ -7278,7 +7278,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7328,7 +7328,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7378,7 +7378,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7428,7 +7428,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7478,7 +7478,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7499,7 +7499,7 @@
         <v>4</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K84">
         <v>0.001615549076132957</v>
@@ -7528,7 +7528,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7578,7 +7578,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7628,7 +7628,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7678,7 +7678,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7728,7 +7728,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7778,7 +7778,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -7828,7 +7828,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -7878,7 +7878,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -7899,7 +7899,7 @@
         <v>4</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K92">
         <v>0.001546173588448733</v>
@@ -7928,7 +7928,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -7949,7 +7949,7 @@
         <v>5</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K93">
         <v>0.001528605406815376</v>
@@ -7978,7 +7978,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -7999,7 +7999,7 @@
         <v>11</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K94">
         <v>0.001475778176700392</v>
@@ -8028,7 +8028,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002641390528361856</v>
+        <v>0.002677424706226409</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8078,7 +8078,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002334338047244265</v>
+        <v>0.002366183377000391</v>
       </c>
       <c r="C96">
         <v>26</v>
@@ -8128,7 +8128,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002294260717107819</v>
+        <v>0.002325559306945342</v>
       </c>
       <c r="C97">
         <v>14</v>
@@ -8178,7 +8178,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002225468164266389</v>
+        <v>0.002255828277548391</v>
       </c>
       <c r="C98">
         <v>13</v>
@@ -8228,7 +8228,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002153124878500404</v>
+        <v>0.002182498075687037</v>
       </c>
       <c r="C99">
         <v>7</v>
@@ -8278,7 +8278,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002115329909564349</v>
+        <v>0.002144187503087531</v>
       </c>
       <c r="C100">
         <v>10</v>
@@ -8328,25 +8328,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001928224867555504</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C101">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>369</v>
@@ -8378,7 +8378,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>370</v>
@@ -8428,7 +8428,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>371</v>
@@ -8478,7 +8478,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>372</v>
@@ -8528,7 +8528,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>373</v>
@@ -8578,7 +8578,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>374</v>
@@ -8628,7 +8628,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8646,10 +8646,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K107">
         <v>0.001453045017047799</v>
@@ -8678,7 +8678,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8696,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K108">
         <v>0.001404316822458329</v>
@@ -8728,7 +8728,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>375</v>
@@ -8778,7 +8778,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8796,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>376</v>
@@ -8828,7 +8828,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>377</v>
@@ -8878,7 +8878,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>378</v>
@@ -8928,7 +8928,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>379</v>
@@ -8978,7 +8978,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>380</v>
@@ -9028,7 +9028,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>381</v>
@@ -9078,7 +9078,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>382</v>
@@ -9128,7 +9128,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9146,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>383</v>
@@ -9178,7 +9178,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9196,10 +9196,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K118">
         <v>0.001364593942449889</v>
@@ -9228,7 +9228,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9246,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K119">
         <v>0.001362606299903417</v>
@@ -9278,7 +9278,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9296,10 +9296,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K120">
         <v>0.001271806244721591</v>
@@ -9328,7 +9328,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9346,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>384</v>
@@ -9378,7 +9378,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9396,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>385</v>
@@ -9428,7 +9428,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>386</v>
@@ -9478,7 +9478,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>387</v>
@@ -9528,7 +9528,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>388</v>
@@ -9578,7 +9578,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>389</v>
@@ -9628,7 +9628,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>390</v>
@@ -9678,7 +9678,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9696,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>391</v>
@@ -9728,7 +9728,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>392</v>
@@ -9778,7 +9778,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>393</v>
@@ -9828,7 +9828,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>394</v>
@@ -9878,7 +9878,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>395</v>
@@ -9928,7 +9928,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>396</v>
@@ -9978,7 +9978,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>397</v>
@@ -10028,7 +10028,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>398</v>
@@ -10078,7 +10078,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>399</v>
@@ -10128,7 +10128,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>400</v>
@@ -10178,7 +10178,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>401</v>
@@ -10228,7 +10228,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>402</v>
@@ -10278,7 +10278,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10296,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>403</v>
@@ -10328,7 +10328,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K141">
         <v>0.001268226652429358</v>
@@ -10378,7 +10378,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K142">
         <v>0.001242301796183993</v>
@@ -10428,7 +10428,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K143">
         <v>0.00123843424330625</v>
@@ -10478,7 +10478,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10496,10 +10496,10 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K144">
         <v>0.001206704234341102</v>
@@ -10528,7 +10528,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10546,10 +10546,10 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K145">
         <v>0.001174684132196486</v>
@@ -10578,7 +10578,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10596,10 +10596,10 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K146">
         <v>0.001172401894306343</v>
@@ -10628,7 +10628,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>404</v>
@@ -10678,7 +10678,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10696,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>405</v>
@@ -10728,7 +10728,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>406</v>
@@ -10778,7 +10778,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>407</v>
@@ -10828,7 +10828,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001867745154366586</v>
+        <v>0.001893225165889094</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>408</v>
@@ -10878,25 +10878,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001867745154366586</v>
+        <v>0.001849322781905086</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>409</v>
@@ -10928,25 +10928,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001824433631559545</v>
+        <v>0.001796221883201903</v>
       </c>
       <c r="C153">
         <v>11</v>
       </c>
       <c r="D153">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E153">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F153">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>410</v>
@@ -10978,25 +10978,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001772047392441069</v>
+        <v>0.001734358671830857</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D154">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="E154">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F154">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>222</v>
+        <v>689</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>411</v>
@@ -11028,25 +11028,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001711016768427805</v>
+        <v>0.001681163713818773</v>
       </c>
       <c r="C155">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="E155">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F155">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>689</v>
+        <v>269</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>412</v>
@@ -11078,13 +11078,13 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001697574160093</v>
+        <v>0.001579358186057909</v>
       </c>
       <c r="C156">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="E156">
         <v>0.9399999999999999</v>
@@ -11096,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>413</v>
@@ -11128,25 +11128,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001658537735899656</v>
+        <v>0.001573968403478884</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D157">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="E157">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F157">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>269</v>
+        <v>487</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>414</v>
@@ -11178,25 +11178,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001558102360018842</v>
+        <v>0.001523320043088658</v>
       </c>
       <c r="C158">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E158">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F158">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>415</v>
@@ -11228,25 +11228,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001552785115944318</v>
+        <v>0.001465706600048731</v>
       </c>
       <c r="C159">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D159">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="E159">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F159">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>487</v>
+        <v>30</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>416</v>
@@ -11278,25 +11278,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001502818407599285</v>
+        <v>0.00133897118051157</v>
       </c>
       <c r="C160">
         <v>3</v>
       </c>
       <c r="D160">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="E160">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F160">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>409</v>
+        <v>9</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>417</v>
@@ -11328,13 +11328,13 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001445980356318858</v>
+        <v>0.001277583413289097</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D161">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E161">
         <v>0.97</v>
@@ -11346,7 +11346,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>418</v>
@@ -11378,25 +11378,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001320950608145199</v>
+        <v>0.001266006860464465</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D162">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E162">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F162">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>419</v>
@@ -11428,25 +11428,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001260389029505231</v>
+        <v>0.001244896161967808</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D163">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E163">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F163">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>420</v>
@@ -11478,25 +11478,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001248968279965215</v>
+        <v>0.00118500683491068</v>
       </c>
       <c r="C164">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D164">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E164">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F164">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>421</v>
@@ -11528,25 +11528,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001228141700257297</v>
+        <v>0.001168667263261087</v>
       </c>
       <c r="C165">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E165">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F165">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>422</v>
@@ -11578,25 +11578,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001169058394993553</v>
+        <v>0.001107328099403795</v>
       </c>
       <c r="C166">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D166">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="E166">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F166">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>423</v>
@@ -11628,25 +11628,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001152938729819643</v>
+        <v>0.001099173867108987</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="E167">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F167">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>424</v>
@@ -11678,25 +11678,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001092425100415423</v>
+        <v>0.001097481869281489</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D168">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E168">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F168">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>425</v>
@@ -11728,13 +11728,13 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001084380612030939</v>
+        <v>0.001094777390481847</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E169">
         <v>0.99</v>
@@ -11746,7 +11746,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>426</v>
@@ -11778,25 +11778,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001082711385992512</v>
+        <v>0.001062302730930134</v>
       </c>
       <c r="C170">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D170">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E170">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F170">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>427</v>
@@ -11828,25 +11828,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001080043305478832</v>
+        <v>0.001043142488800522</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="E171">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F171">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>428</v>
@@ -11878,25 +11878,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001048005706829581</v>
+        <v>0.001022602381694697</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E172">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F172">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>25</v>
+        <v>1098</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>429</v>
@@ -11928,13 +11928,13 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001029103333229836</v>
+        <v>0.001000968830471147</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
       <c r="D173">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E173">
         <v>0.97</v>
@@ -11946,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>430</v>
@@ -11978,28 +11978,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001008839665596273</v>
+        <v>0.0009985444922625162</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E174">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F174">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>1098</v>
+        <v>79</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K174">
         <v>0.001157763907762354</v>
@@ -12028,28 +12028,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0009874972699861063</v>
+        <v>0.0009781314443402494</v>
       </c>
       <c r="C175">
         <v>2</v>
       </c>
       <c r="D175">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E175">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F175">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K175">
         <v>0.001131153397730981</v>
@@ -12078,28 +12078,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0009851055597852815</v>
+        <v>0.0009738312816417369</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D176">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E176">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F176">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K176">
         <v>0.001109740372306752</v>
@@ -12128,13 +12128,13 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0009649672413065273</v>
+        <v>0.0008915120482461601</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
       <c r="D177">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E177">
         <v>0.96</v>
@@ -12146,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>431</v>
@@ -12178,25 +12178,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0009607249524399714</v>
+        <v>0.0008700003891511513</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E178">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F178">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>432</v>
@@ -12228,25 +12228,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0008795136142135667</v>
+        <v>0.0008663234611801314</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179">
         <v>47</v>
       </c>
       <c r="E179">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F179">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>433</v>
@@ -12278,25 +12278,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0008582914702441142</v>
+        <v>0.0008663234611801314</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D180">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E180">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F180">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>434</v>
@@ -12328,7 +12328,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0008546640282870967</v>
+        <v>0.0008663234611801314</v>
       </c>
       <c r="C181">
         <v>3</v>
@@ -12346,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>435</v>
@@ -12378,25 +12378,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0008546640282870967</v>
+        <v>0.0008641352827411249</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E182">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F182">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>190</v>
+        <v>9</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>436</v>
@@ -12428,25 +12428,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0008546640282870967</v>
+        <v>0.0008296594968531289</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E183">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F183">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>437</v>
@@ -12478,13 +12478,13 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0008525052994945685</v>
+        <v>0.0008189415259705657</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E184">
         <v>0.98</v>
@@ -12496,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>438</v>
@@ -12528,25 +12528,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0008184935067107744</v>
+        <v>0.0007969600619535863</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E185">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F185">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>439</v>
@@ -12578,25 +12578,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0008079197838693348</v>
+        <v>0.0007886805946377899</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D186">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E186">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F186">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>440</v>
@@ -12628,13 +12628,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0007862341578575359</v>
+        <v>0.0007646054669478137</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E187">
         <v>0.97</v>
@@ -12646,7 +12646,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>441</v>
@@ -12678,25 +12678,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0007780661199302811</v>
+        <v>0.0007626643407011559</v>
       </c>
       <c r="C188">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E188">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F188">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>236</v>
+        <v>929</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>442</v>
@@ -12728,13 +12728,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0007543150078629571</v>
+        <v>0.0007558921710693628</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E189">
         <v>0.97</v>
@@ -12746,7 +12746,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>443</v>
@@ -12778,25 +12778,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0007524000063055454</v>
+        <v>0.0007469002442626201</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E190">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F190">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>929</v>
+        <v>94</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>444</v>
@@ -12828,25 +12828,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.000745718980064068</v>
+        <v>0.0007451706774378898</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D191">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E191">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F191">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>445</v>
@@ -12878,25 +12878,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0007368480712972149</v>
+        <v>0.0007309294016850716</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E192">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F192">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>446</v>
@@ -12928,25 +12928,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0007351417818847107</v>
+        <v>0.0007280127881902319</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E193">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F193">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>447</v>
@@ -12978,25 +12978,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0007210921726472204</v>
+        <v>0.0007069490990945323</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D194">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E194">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F194">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>448</v>
@@ -13028,25 +13028,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0007182148124576896</v>
+        <v>0.0007024861740418371</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E195">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F195">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>449</v>
@@ -13078,25 +13078,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0006974346094736976</v>
+        <v>0.0006875806071475011</v>
       </c>
       <c r="C196">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E196">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F196">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>450</v>
@@ -13128,25 +13128,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0006930317487935956</v>
+        <v>0.000662586358832258</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E197">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F197">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>451</v>
@@ -13178,13 +13178,13 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0006783267887911709</v>
+        <v>0.0006562611917634961</v>
       </c>
       <c r="C198">
         <v>2</v>
       </c>
       <c r="D198">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E198">
         <v>0.93</v>
@@ -13228,25 +13228,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0006536689261032388</v>
+        <v>0.0006562611917634961</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E199">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F199">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>453</v>
@@ -13278,7 +13278,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0006474288864312059</v>
+        <v>0.0006562611917634961</v>
       </c>
       <c r="C200">
         <v>2</v>
@@ -13296,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>454</v>
@@ -13328,25 +13328,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0006474288864312059</v>
+        <v>0.0006539156507902714</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D201">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E201">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F201">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>455</v>
@@ -13378,25 +13378,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0006474288864312059</v>
+        <v>0.000650119312532571</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E202">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F202">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>456</v>
@@ -13428,25 +13428,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0006451149129715031</v>
+        <v>0.0006235236367552137</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E203">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F203">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>457</v>
@@ -13478,25 +13478,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0006413696678137109</v>
+        <v>0.0006188496363381953</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E204">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F204">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>458</v>
@@ -13528,25 +13528,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0006151319305095293</v>
+        <v>0.0006140725237858783</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D205">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E205">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F205">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>459</v>
@@ -13578,25 +13578,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0006105208352274243</v>
+        <v>0.000609301506362206</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E206">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F206">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>460</v>
@@ -13628,25 +13628,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0006058080155469064</v>
+        <v>0.000609301506362206</v>
       </c>
       <c r="C207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E207">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F207">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>461</v>
@@ -13678,13 +13678,13 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0006011012089636136</v>
+        <v>0.0005943908471850594</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E208">
         <v>0.95</v>
@@ -13696,7 +13696,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>462</v>
@@ -13728,13 +13728,13 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0006011012089636136</v>
+        <v>0.0005787283276565164</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E209">
         <v>0.95</v>
@@ -13746,7 +13746,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>463</v>
@@ -13778,25 +13778,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0005863912252129757</v>
+        <v>0.0005448483647724858</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E210">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F210">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>464</v>
@@ -13828,25 +13828,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0005709395000396151</v>
+        <v>0.0005448483647724858</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E211">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F211">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>72</v>
+        <v>342</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>465</v>
@@ -13878,13 +13878,13 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0005375155113631013</v>
+        <v>0.0005264527286859698</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E212">
         <v>0.9399999999999999</v>
@@ -13896,7 +13896,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>466</v>
@@ -13928,13 +13928,13 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0005375155113631013</v>
+        <v>0.0005069440712522341</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E213">
         <v>0.9399999999999999</v>
@@ -13946,7 +13946,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>342</v>
+        <v>33</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>467</v>
@@ -13978,13 +13978,13 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0005193674533396142</v>
+        <v>0.0005069440712522341</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E214">
         <v>0.9399999999999999</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>468</v>
@@ -14028,25 +14028,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0005001213535905936</v>
+        <v>0.0004861929099263616</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E215">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F215">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>469</v>
@@ -14078,25 +14078,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0005001213535905936</v>
+        <v>0.0004861929099263616</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E216">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F216">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>470</v>
@@ -14128,28 +14128,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0004796494722147319</v>
+        <v>0.0004776965912826391</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D217">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E217">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="F217">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K217">
         <v>0.001003041092076301</v>
@@ -14178,28 +14178,28 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0004796494722147319</v>
+        <v>0.0004403244624051409</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E218">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F218">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K218">
         <v>0.0009965411295796425</v>
@@ -14228,28 +14228,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0004712675014578014</v>
+        <v>0.0004342148457093318</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E219">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F219">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>115</v>
+        <v>528</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K219">
         <v>0.0009732930918234348</v>
@@ -14278,28 +14278,28 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0004343983461787828</v>
+        <v>0.0003872386126326755</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E220">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F220">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K220">
         <v>0.0009083376537585901</v>
@@ -14328,28 +14328,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0004283709558903827</v>
+        <v>0.0003872386126326755</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E221">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F221">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>528</v>
+        <v>55</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K221">
         <v>0.0009083376537585901</v>
@@ -14378,28 +14378,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0003820269534546681</v>
+        <v>0.000384998139341648</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D222">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E222">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F222">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K222">
         <v>0.0009083376537585901</v>
@@ -14428,28 +14428,28 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0003820269534546681</v>
+        <v>0.0003572930041277591</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E223">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F223">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K223">
         <v>0.0009070140733780226</v>
@@ -14478,25 +14478,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0003798166336215071</v>
+        <v>0.0003572930041277591</v>
       </c>
       <c r="C224">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E224">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F224">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>471</v>
@@ -14528,7 +14528,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0003524843685644286</v>
+        <v>0.0003572930041277591</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14546,7 +14546,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>472</v>
@@ -14578,7 +14578,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0003524843685644286</v>
+        <v>0.0003572930041277591</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14596,7 +14596,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>473</v>
@@ -14628,25 +14628,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0003524843685644286</v>
+        <v>0.0003245790512515183</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E227">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F227">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>474</v>
@@ -14678,25 +14678,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0003524843685644286</v>
+        <v>0.0003245790512515183</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E228">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F228">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>475</v>
@@ -14728,7 +14728,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.000320210697124993</v>
+        <v>0.0003245790512515183</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14746,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>476</v>
@@ -14778,25 +14778,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.000320210697124993</v>
+        <v>0.0003093687662520385</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D230">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E230">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F230">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>477</v>
@@ -14828,25 +14828,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.000320210697124993</v>
+        <v>0.000288610761150311</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E231">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F231">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>478</v>
@@ -14878,25 +14878,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0003052051200725816</v>
+        <v>0.000288610761150311</v>
       </c>
       <c r="C232">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E232">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F232">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>479</v>
@@ -14928,7 +14928,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.000284726487027969</v>
+        <v>0.000288610761150311</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14946,7 +14946,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>480</v>
@@ -14978,7 +14978,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.000284726487027969</v>
+        <v>0.000288610761150311</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14996,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>481</v>
@@ -15028,25 +15028,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.000284726487027969</v>
+        <v>0.0002487898866897274</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E235">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F235">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>482</v>
@@ -15078,25 +15078,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.000284726487027969</v>
+        <v>0.0002487898866897274</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E236">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F236">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>483</v>
@@ -15128,7 +15128,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0002454415426608434</v>
+        <v>0.0002487898866897274</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15146,7 +15146,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>484</v>
@@ -15178,7 +15178,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0002454415426608434</v>
+        <v>0.0002487898866897274</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15196,7 +15196,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>485</v>
@@ -15228,7 +15228,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0002454415426608434</v>
+        <v>0.0002487898866897274</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15246,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>486</v>
@@ -15278,7 +15278,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0002454415426608434</v>
+        <v>0.0002487898866897274</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15296,7 +15296,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>487</v>
@@ -15328,25 +15328,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0002454415426608434</v>
+        <v>0.0002187567525041323</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E241">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F241">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>488</v>
@@ -15378,25 +15378,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0002454415426608434</v>
+        <v>0.0002044011335923869</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E242">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F242">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>489</v>
@@ -15428,25 +15428,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0002158126100561769</v>
+        <v>0.0002044011335923869</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E243">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F243">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>490</v>
@@ -15478,7 +15478,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0002016501965496175</v>
+        <v>0.0002044011335923869</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15496,7 +15496,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>491</v>
@@ -15528,7 +15528,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0002016501965496175</v>
+        <v>0.0002044011335923869</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15546,7 +15546,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>492</v>
@@ -15578,7 +15578,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0002016501965496175</v>
+        <v>0.0002044011335923869</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15596,7 +15596,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>493</v>
@@ -15628,25 +15628,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0002016501965496175</v>
+        <v>0.0001546843831260193</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E247">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F247">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>494</v>
@@ -15678,25 +15678,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0002016501965496175</v>
+        <v>0.0001403738089541293</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E248">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F248">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>495</v>
@@ -15728,25 +15728,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0001526025600362908</v>
+        <v>0.0001403738089541293</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E249">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F249">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>496</v>
@@ -15778,7 +15778,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0001384845850339889</v>
+        <v>0.0001403738089541293</v>
       </c>
       <c r="C250">
         <v>2</v>
@@ -15796,7 +15796,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>497</v>
@@ -15828,25 +15828,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0001384845850339889</v>
+        <v>0.0001099941312650784</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D251">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E251">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F251">
-        <v>0.25</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>498</v>
@@ -15878,13 +15878,13 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0001384845850339889</v>
+        <v>9.925927221245015E-05</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E252">
         <v>0.75</v>
@@ -15896,7 +15896,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>499</v>
@@ -15928,25 +15928,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0001085137728890444</v>
+        <v>9.925927221245015E-05</v>
       </c>
       <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
         <v>4</v>
       </c>
-      <c r="D253">
-        <v>13</v>
-      </c>
       <c r="E253">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F253">
-        <v>0.3100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>500</v>
@@ -15978,7 +15978,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>9.792338916733902E-05</v>
+        <v>9.925927221245015E-05</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -15996,7 +15996,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>501</v>
@@ -16028,7 +16028,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>9.792338916733902E-05</v>
+        <v>9.925927221245015E-05</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>502</v>
@@ -16078,7 +16078,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>9.792338916733902E-05</v>
+        <v>9.925927221245015E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16096,7 +16096,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>503</v>
@@ -16128,7 +16128,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>9.792338916733902E-05</v>
+        <v>9.925927221245015E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16146,7 +16146,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>504</v>
@@ -16178,25 +16178,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>9.792338916733902E-05</v>
+        <v>5.713601738967085E-05</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E258">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F258">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>505</v>
@@ -16228,25 +16228,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>9.792338916733902E-05</v>
+        <v>5.713601738967085E-05</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E259">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F259">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>506</v>
@@ -16278,25 +16278,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>5.636705107352994E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
         <v>3</v>
       </c>
       <c r="E260">
+        <v>0.67</v>
+      </c>
+      <c r="F260">
         <v>0.33</v>
       </c>
-      <c r="F260">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>507</v>
@@ -16328,25 +16328,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>5.636705107352994E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261">
         <v>3</v>
       </c>
       <c r="E261">
+        <v>0.67</v>
+      </c>
+      <c r="F261">
         <v>0.33</v>
       </c>
-      <c r="F261">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>508</v>
@@ -16378,7 +16378,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>3.985752404958086E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16396,7 +16396,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>509</v>
@@ -16428,7 +16428,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>3.985752404958086E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16446,7 +16446,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>510</v>
@@ -16478,7 +16478,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>3.985752404958086E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16496,7 +16496,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>511</v>
@@ -16528,7 +16528,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>3.985752404958086E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16546,7 +16546,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>512</v>
@@ -16578,7 +16578,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>3.985752404958086E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16596,7 +16596,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>513</v>
@@ -16628,7 +16628,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>3.985752404958086E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16646,7 +16646,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>514</v>
@@ -16678,7 +16678,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>3.985752404958086E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16696,7 +16696,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>515</v>
@@ -16728,7 +16728,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>3.985752404958086E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -16746,7 +16746,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>516</v>
@@ -16778,7 +16778,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>3.985752404958086E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16796,7 +16796,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>517</v>
@@ -16828,7 +16828,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>3.985752404958086E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -16846,7 +16846,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>518</v>
@@ -16878,7 +16878,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>3.985752404958086E-05</v>
+        <v>4.040126534622813E-05</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -16896,7 +16896,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>519</v>
@@ -16928,25 +16928,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>3.985752404958086E-05</v>
+        <v>1.974340405745775E-05</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E273">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F273">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>520</v>
@@ -16978,25 +16978,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>3.985752404958086E-05</v>
+        <v>0</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E274">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F274">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>521</v>
@@ -17028,25 +17028,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>1.947768703026976E-05</v>
+        <v>0</v>
       </c>
       <c r="C275">
         <v>2</v>
       </c>
       <c r="D275">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E275">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F275">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>288</v>
+        <v>23</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>522</v>
@@ -17081,10 +17081,10 @@
         <v>0</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E276">
         <v>0.5</v>
@@ -17096,7 +17096,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>523</v>
@@ -17131,10 +17131,10 @@
         <v>0</v>
       </c>
       <c r="C277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E277">
         <v>0.5</v>
@@ -17146,7 +17146,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>524</v>
@@ -17196,7 +17196,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>525</v>
@@ -17246,7 +17246,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>526</v>
@@ -17296,7 +17296,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>527</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>528</v>
@@ -17396,7 +17396,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>529</v>
@@ -17446,7 +17446,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>530</v>
@@ -17481,10 +17481,10 @@
         <v>0</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D284">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E284">
         <v>0.5</v>
@@ -17496,7 +17496,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>531</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>532</v>
@@ -17581,10 +17581,10 @@
         <v>0</v>
       </c>
       <c r="C286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E286">
         <v>0.5</v>
@@ -17596,7 +17596,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>533</v>
@@ -17646,7 +17646,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>534</v>
@@ -17681,10 +17681,10 @@
         <v>0</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E288">
         <v>0.5</v>
@@ -17696,7 +17696,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>535</v>
@@ -17723,31 +17723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
-      <c r="A289" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B289">
-        <v>0</v>
-      </c>
-      <c r="C289">
-        <v>1</v>
-      </c>
-      <c r="D289">
-        <v>2</v>
-      </c>
-      <c r="E289">
-        <v>0.5</v>
-      </c>
-      <c r="F289">
-        <v>0.5</v>
-      </c>
-      <c r="G289" t="b">
-        <v>1</v>
-      </c>
-      <c r="H289">
-        <v>64</v>
-      </c>
+    <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
         <v>536</v>
       </c>
@@ -17773,31 +17749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
-      <c r="A290" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B290">
-        <v>0</v>
-      </c>
-      <c r="C290">
-        <v>2</v>
-      </c>
-      <c r="D290">
-        <v>4</v>
-      </c>
-      <c r="E290">
-        <v>0.5</v>
-      </c>
-      <c r="F290">
-        <v>0.5</v>
-      </c>
-      <c r="G290" t="b">
-        <v>1</v>
-      </c>
-      <c r="H290">
-        <v>97</v>
-      </c>
+    <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
         <v>537</v>
       </c>
@@ -17823,7 +17775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="10:17">
       <c r="J291" s="1" t="s">
         <v>538</v>
       </c>
@@ -17849,7 +17801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
         <v>539</v>
       </c>
@@ -17875,7 +17827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="10:17">
       <c r="J293" s="1" t="s">
         <v>540</v>
       </c>
@@ -17901,7 +17853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
         <v>541</v>
       </c>
@@ -17927,7 +17879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="10:17">
       <c r="J295" s="1" t="s">
         <v>542</v>
       </c>
@@ -17953,7 +17905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="10:17">
       <c r="J296" s="1" t="s">
         <v>543</v>
       </c>
@@ -17979,7 +17931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
         <v>544</v>
       </c>
@@ -18005,7 +17957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="10:17">
       <c r="J298" s="1" t="s">
         <v>545</v>
       </c>
@@ -18031,7 +17983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="10:17">
       <c r="J299" s="1" t="s">
         <v>546</v>
       </c>
@@ -18057,7 +18009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
         <v>547</v>
       </c>
@@ -18083,7 +18035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="10:17">
       <c r="J301" s="1" t="s">
         <v>548</v>
       </c>
@@ -18109,7 +18061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="10:17">
       <c r="J302" s="1" t="s">
         <v>549</v>
       </c>
@@ -18135,7 +18087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="10:17">
       <c r="J303" s="1" t="s">
         <v>550</v>
       </c>
@@ -18161,7 +18113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
         <v>551</v>
       </c>
@@ -18293,7 +18245,7 @@
     </row>
     <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K309">
         <v>0.0008719673413314815</v>
@@ -18319,7 +18271,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K310">
         <v>0.0008006925594806866</v>
@@ -18345,7 +18297,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K311">
         <v>0.0007878486800079759</v>
@@ -18371,7 +18323,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K312">
         <v>0.000764440046187695</v>
@@ -18397,7 +18349,7 @@
     </row>
     <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K313">
         <v>0.000764440046187695</v>
@@ -21907,7 +21859,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K448">
         <v>0.0007323578028856091</v>
@@ -21933,7 +21885,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K449">
         <v>0.0007277607712679466</v>
@@ -21959,7 +21911,7 @@
     </row>
     <row r="450" spans="10:17">
       <c r="J450" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K450">
         <v>0.000723311874318589</v>
@@ -21985,7 +21937,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K451">
         <v>0.0007043510524221498</v>
@@ -22011,7 +21963,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K452">
         <v>0.0006912969149764661</v>
@@ -22037,7 +21989,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K453">
         <v>0.0006906421376626665</v>
@@ -22063,7 +22015,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K454">
         <v>0.0006478134041017338</v>
@@ -22089,7 +22041,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K455">
         <v>0.0006478134041017338</v>
@@ -22115,7 +22067,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K456">
         <v>0.0006478134041017338</v>
@@ -22141,7 +22093,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K457">
         <v>0.0006288094944522893</v>
@@ -22167,7 +22119,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K458">
         <v>0.0006150375666026395</v>
@@ -22193,7 +22145,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K459">
         <v>0.0006150375666026395</v>
@@ -22219,7 +22171,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K460">
         <v>0.000576528662289978</v>
@@ -22245,7 +22197,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K461">
         <v>0.0005566236237321941</v>
@@ -22271,7 +22223,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K462">
         <v>0.0005375355710931621</v>
@@ -22297,7 +22249,7 @@
     </row>
     <row r="463" spans="10:17">
       <c r="J463" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K463">
         <v>0.0005375355710931621</v>
@@ -30331,7 +30283,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K772">
         <v>0.0005120810400459574</v>
@@ -30357,7 +30309,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K773">
         <v>0.0005082857399474926</v>
@@ -30383,7 +30335,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K774">
         <v>0.0004980514055035835</v>
@@ -30409,7 +30361,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K775">
         <v>0.0004980514055035835</v>
@@ -30435,7 +30387,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K776">
         <v>0.000460417506193424</v>
@@ -30461,7 +30413,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K777">
         <v>0.0004176043053458901</v>
@@ -30513,7 +30465,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K779">
         <v>0.0003376821028403715</v>
@@ -30539,7 +30491,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K780">
         <v>0.0003352588001325494</v>
@@ -30565,7 +30517,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K781">
         <v>0.0003352588001325494</v>
@@ -30591,7 +30543,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K782">
         <v>0.0003255643408063694</v>
@@ -30617,7 +30569,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K783">
         <v>0.0002934589087839326</v>
@@ -30643,7 +30595,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K784">
         <v>0.0002934589087839326</v>
@@ -30669,7 +30621,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K785">
         <v>0.0002934589087839326</v>
@@ -30695,7 +30647,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K786">
         <v>0.0002934589087839326</v>
@@ -30721,7 +30673,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K787">
         <v>0.0002513431252256167</v>
@@ -30747,7 +30699,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K788">
         <v>0.0002513431252256167</v>
@@ -30773,7 +30725,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K789">
         <v>0.0002513431252256167</v>
@@ -30799,7 +30751,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K790">
         <v>0.0002297243155763388</v>
@@ -30825,7 +30777,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K791">
         <v>0.0002090562091777196</v>
@@ -30851,7 +30803,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K792">
         <v>0.0002090562091777196</v>
@@ -30877,7 +30829,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K793">
         <v>0.0002090562091777196</v>
@@ -30903,7 +30855,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K794">
         <v>0.0002090562091777196</v>
@@ -30955,7 +30907,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K796">
         <v>0.0001693978882080985</v>
@@ -30981,7 +30933,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K797">
         <v>0.0001668437253478249</v>
@@ -31007,7 +30959,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K798">
         <v>0.0001668437253478249</v>
@@ -31033,7 +30985,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K799">
         <v>0.0001668437253478249</v>
@@ -31059,7 +31011,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K800">
         <v>0.0001668437253478249</v>
@@ -31085,7 +31037,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K801">
         <v>0.0001668437253478249</v>
@@ -31111,7 +31063,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K802">
         <v>0.0001668437253478249</v>
@@ -31137,7 +31089,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K803">
         <v>0.0001251324169405692</v>
@@ -31163,7 +31115,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K804">
         <v>0.0001251324169405692</v>
@@ -31189,7 +31141,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K805">
         <v>0.0001251324169405692</v>
@@ -31215,7 +31167,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K806">
         <v>0.0001251324169405692</v>
@@ -31241,7 +31193,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K807">
         <v>0.0001251324169405692</v>
@@ -31267,7 +31219,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K808">
         <v>0.0001197823954706272</v>
@@ -31293,7 +31245,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K809">
         <v>8.469894410404926E-05</v>
@@ -31319,7 +31271,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K810">
         <v>6.656535348598138E-05</v>
@@ -31345,7 +31297,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K811">
         <v>6.656535348598138E-05</v>
@@ -31371,7 +31323,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K812">
         <v>6.656535348598138E-05</v>
@@ -31397,7 +31349,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K813">
         <v>4.706881284201703E-05</v>
@@ -31423,7 +31375,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K814">
         <v>4.706881284201703E-05</v>
@@ -31449,7 +31401,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K815">
         <v>4.706881284201703E-05</v>
@@ -31475,7 +31427,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K816">
         <v>4.706881284201703E-05</v>
@@ -31501,7 +31453,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K817">
         <v>4.706881284201703E-05</v>
@@ -31527,7 +31479,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K818">
         <v>4.706881284201703E-05</v>
@@ -31553,7 +31505,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K819">
         <v>4.517127030304864E-05</v>
@@ -31579,7 +31531,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K820">
         <v>1.564269205920147E-05</v>
@@ -31605,7 +31557,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K821">
         <v>1.564269205920147E-05</v>
@@ -31631,7 +31583,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K822">
         <v>1.564269205920147E-05</v>
@@ -31657,7 +31609,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K823">
         <v>1.564269205920147E-05</v>
@@ -31683,7 +31635,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K824">
         <v>1.564269205920147E-05</v>
@@ -31709,7 +31661,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K825">
         <v>1.564269205920147E-05</v>
@@ -31735,7 +31687,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K826">
         <v>1.564269205920147E-05</v>
@@ -31761,7 +31713,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K827">
         <v>1.564269205920147E-05</v>
@@ -31787,7 +31739,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K828">
         <v>1.564269205920147E-05</v>
@@ -31813,7 +31765,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K829">
         <v>1.564269205920147E-05</v>
@@ -31839,7 +31791,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K830">
         <v>1.564269205920147E-05</v>
@@ -31865,7 +31817,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K831">
         <v>1.564269205920147E-05</v>
@@ -31891,7 +31843,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K832">
         <v>1.564269205920147E-05</v>
@@ -31917,7 +31869,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K833">
         <v>1.106105363107414E-05</v>
@@ -31943,7 +31895,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K834">
         <v>1.106105363107414E-05</v>
@@ -31969,7 +31921,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K835">
         <v>6.620170795169278E-06</v>
@@ -31995,7 +31947,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K836">
         <v>0</v>
@@ -32021,7 +31973,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K837">
         <v>0</v>
@@ -32047,7 +31999,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K838">
         <v>0</v>
@@ -32073,7 +32025,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K839">
         <v>0</v>
@@ -32099,7 +32051,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K840">
         <v>0</v>
@@ -32125,7 +32077,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K841">
         <v>0</v>
@@ -32151,7 +32103,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K842">
         <v>0</v>
@@ -32177,7 +32129,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K843">
         <v>0</v>
@@ -32203,7 +32155,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K844">
         <v>0</v>
@@ -32229,7 +32181,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K845">
         <v>0</v>
@@ -32255,7 +32207,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K846">
         <v>0</v>
@@ -32281,7 +32233,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K847">
         <v>0</v>
@@ -32307,7 +32259,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K848">
         <v>0</v>
@@ -32333,7 +32285,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K849">
         <v>0</v>
@@ -32359,7 +32311,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K850">
         <v>0</v>
